--- a/Luban/Datas/enums/enum_ui_widget_id.xlsx
+++ b/Luban/Datas/enums/enum_ui_widget_id.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\enums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB7E788-A26A-49CA-B990-287A55021C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB923EA4-CF4D-4082-A931-0901ABD02704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="4140" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -151,6 +151,22 @@
   </si>
   <si>
     <t>ShopGoods</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleSeat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间座位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleRoomCell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间列表栏位</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +559,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -553,7 +569,7 @@
     <col min="4" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="37" customWidth="1"/>
@@ -757,16 +773,28 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="H12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="7">
+        <v>8</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="H13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="7">
+        <v>9</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H14" s="4"/>
